--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3437046.732163674</v>
+        <v>3432714.247342983</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>88.0498484288352</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.0181473530414</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>81.64802493589373</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>114.6467651546788</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>120.1196874929964</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.11360015189864</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9.728248008472624</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>172.9891823158352</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>266.3191370776132</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>200.4661980682387</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>53.65602513333641</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227934</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>208.2896321521029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.93966244919601</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>91.87204320893615</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.30088041042183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470134</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.1513727793243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>232.0473154092256</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>140.9271808900464</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>14.53306611597401</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>211.857988629621</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.16086499484972</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>126.9420388308269</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>166.3208822291529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1253.251950079336</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>1253.251950079336</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>894.9862514725855</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>894.9862514725855</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>484.000346682978</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>470.0769426215689</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>142.8822226575717</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2313.882565602048</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.851790143458</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1245.039635429691</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="C5" t="n">
-        <v>876.077118489279</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="D5" t="n">
-        <v>517.8114198825285</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>328.7419754949681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1245.039635429691</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1245.039635429691</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="6">
@@ -4655,10 +4655,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.6523285934728</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>232.7692952219034</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>63.76949496023579</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283102</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1513.092286283102</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1127.304033684858</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4843,13 +4843,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>281.9325327183818</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5062,19 +5062,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836013</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>584.5295404712656</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888725</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>289.7264993909621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1545.037989771897</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1255.620819734936</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1027.631268836919</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>806.8386896933887</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2418.621364762389</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>2913.946970978148</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3511.3254586047</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>4138.923422159307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.852313429557</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.997479084462</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2027.396014107403</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1738.320787451601</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1483.636299245714</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1194.219129208753</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>966.2295783107356</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>268.7034100454483</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>268.7034100454483</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.6425904082687</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>2565.513299557012</v>
+        <v>315.9123021921487</v>
       </c>
       <c r="M27" t="n">
-        <v>3162.891787183563</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N27" t="n">
-        <v>3790.48975073817</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>4342.399480977458</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.121764902392</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.046538246589</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.362050040702</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W28" t="n">
-        <v>1184.944880003742</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X28" t="n">
-        <v>956.9553291057244</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y28" t="n">
-        <v>956.9553291057244</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3052.912304341663</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2883.976121413757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4481.436760883272</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4261.835295906213</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3972.760069250411</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3972.760069250411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3683.34289921345</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3455.353348315433</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3234.560769171903</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.571434467152</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>3662.891569703542</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3053.935450426146</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>2884.999267498239</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>2734.882628085903</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>2586.96953450351</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.96953450351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>3463.573466154403</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>3235.583915256385</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>3235.583915256385</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,25 +7156,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081858</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153951</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3388.154264430191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.537229081858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,19 +7408,19 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3804.031641025739</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2257.062161108198</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2257.062161108198</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>2257.062161108198</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>2854.44064873475</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3046.798896214207</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>2878.798005073648</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-8.144969615027459e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-1.155557474667594e-12</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>111.8681131589324</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.9259388694754591</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>43.84801117172515</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.43558426092567</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>48.42266963728774</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>40.25407754796396</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>20.0903279146024</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>40.09910511159816</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>211.1765892730631</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>74.66500970696998</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>173.4237883572451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>159.5809595057641</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9259388694749759</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690344.2174915916</v>
+        <v>690344.2174915917</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778549</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.968994952064883e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5067.592601670478</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="P4" t="n">
         <v>5067.592601670416</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670416</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5067.592601670422</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5067.592601670499</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5067.592601670489</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134953.8703278306</v>
+        <v>-134953.8703278305</v>
       </c>
       <c r="C6" t="n">
-        <v>455014.0088867138</v>
+        <v>455014.008886714</v>
       </c>
       <c r="D6" t="n">
-        <v>455014.0088867135</v>
+        <v>455014.0088867137</v>
       </c>
       <c r="E6" t="n">
-        <v>-324130.9604622808</v>
+        <v>-324478.3397166379</v>
       </c>
       <c r="F6" t="n">
-        <v>620241.8172954279</v>
+        <v>619894.4380410711</v>
       </c>
       <c r="G6" t="n">
-        <v>620241.8172954278</v>
+        <v>619894.4380410709</v>
       </c>
       <c r="H6" t="n">
-        <v>620241.8172954276</v>
+        <v>619894.4380410707</v>
       </c>
       <c r="I6" t="n">
-        <v>620241.8172954278</v>
+        <v>619894.4380410709</v>
       </c>
       <c r="J6" t="n">
-        <v>443818.5981028348</v>
+        <v>443471.2188484783</v>
       </c>
       <c r="K6" t="n">
-        <v>620241.817295428</v>
+        <v>619894.4380410709</v>
       </c>
       <c r="L6" t="n">
-        <v>620241.8172954279</v>
+        <v>619894.4380410711</v>
       </c>
       <c r="M6" t="n">
-        <v>496033.3065873694</v>
+        <v>495685.9273330123</v>
       </c>
       <c r="N6" t="n">
-        <v>620241.8172954279</v>
+        <v>619894.4380410708</v>
       </c>
       <c r="O6" t="n">
-        <v>620241.8172954278</v>
+        <v>619894.4380410706</v>
       </c>
       <c r="P6" t="n">
-        <v>620241.8172954281</v>
+        <v>619894.4380410708</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,14 +26980,14 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>63.88146781602605</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>46.20602015524787</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27587,16 +27587,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>170.4896183879343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>267.283604917583</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>293.6644825277986</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.7183800300387</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>146.4426408333225</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>233.8868634258762</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>82.92183163979985</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>85.81567617373906</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770849</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551099</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32572,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.5355639238086</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>209.949944842253</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870023</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>506.566534435233</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>187.2159464875248</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>321.1112257697157</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>560.1612034965808</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>152.5685698206129</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417391</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075094</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36220,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>71.39556506237879</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556927</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>364.4325005132147</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>55.87423440419153</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>187.1368183553855</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>418.0271695745625</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.73094315394616</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3432714.247342983</v>
+        <v>3434474.777645768</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>201.8626635998909</v>
       </c>
       <c r="U2" t="n">
-        <v>205.0181473530414</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>120.1196874929964</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>20.08617874639082</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>13.41006015825289</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.728248008472624</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>61.26526235734959</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>266.3191370776132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733143</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>117.6579322793572</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5981994227934</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>232.0473154092256</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>250.1067528667083</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>132.1341815222723</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2317.069922928462</v>
       </c>
       <c r="U2" t="n">
-        <v>2313.882565602048</v>
+        <v>2063.308137566554</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.819678258477</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.819678258477</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.819678258477</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355898</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.6874762441716</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>335.6874762441716</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>335.6874762441716</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>335.6874762441716</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>328.7419754949681</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2621.831332107917</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2290.768444764346</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>722.2873163082934</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321495</v>
+        <v>532.9350040648279</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198137</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E7" t="n">
-        <v>379.6592427198137</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F7" t="n">
-        <v>232.7692952219034</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>63.76949496023579</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.111172177389</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,13 +5132,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,16 +5363,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>483.8760050556313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921487</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187003</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1521.040329916217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1231.623159879256</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1003.633608981239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,19 +6551,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,25 +6925,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,34 +6955,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7022,16 +7022,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
@@ -7265,10 +7265,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="41">
@@ -7402,58 +7402,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7502,10 +7502,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7736,13 +7736,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>766.1932606498908</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998291</v>
+        <v>618.2801670674977</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.155557474667594e-12</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>63.36835372228737</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9259388694754591</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>20.0903279146024</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>36.41624546988268</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>13.28686650065893</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>690344.2174915916</v>
+        <v>690344.2174915917</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210052</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.968994952064883e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.05229584621677e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26441,25 +26441,25 @@
         <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670478</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670361</v>
       </c>
       <c r="N4" t="n">
+        <v>5067.592601670396</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5067.592601670398</v>
+      </c>
+      <c r="P4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5067.592601670438</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.592601670416</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134953.8703278305</v>
+        <v>-134953.8703278307</v>
       </c>
       <c r="C6" t="n">
-        <v>455014.008886714</v>
+        <v>455014.0088867138</v>
       </c>
       <c r="D6" t="n">
-        <v>455014.0088867137</v>
+        <v>455014.0088867138</v>
       </c>
       <c r="E6" t="n">
-        <v>-324478.3397166379</v>
+        <v>-324165.6983877168</v>
       </c>
       <c r="F6" t="n">
-        <v>619894.4380410711</v>
+        <v>620207.079369992</v>
       </c>
       <c r="G6" t="n">
-        <v>619894.4380410709</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="H6" t="n">
-        <v>619894.4380410707</v>
+        <v>620207.0793699921</v>
       </c>
       <c r="I6" t="n">
-        <v>619894.4380410709</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="J6" t="n">
-        <v>443471.2188484783</v>
+        <v>443783.8601773985</v>
       </c>
       <c r="K6" t="n">
-        <v>619894.4380410709</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="L6" t="n">
-        <v>619894.4380410711</v>
+        <v>620207.079369992</v>
       </c>
       <c r="M6" t="n">
-        <v>495685.9273330123</v>
+        <v>495998.5686619331</v>
       </c>
       <c r="N6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.0793699919</v>
       </c>
       <c r="O6" t="n">
-        <v>619894.4380410706</v>
+        <v>620207.079369992</v>
       </c>
       <c r="P6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.079369992</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,25 +26980,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>14.58565675776691</v>
       </c>
       <c r="U2" t="n">
-        <v>46.20602015524787</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>293.6644825277986</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>231.1379887618985</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>153.8367609403749</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>146.4426408333225</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>189.9589051509397</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>82.92183163979985</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.59587156758288</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758288</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.567573657086604e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.033794153969713e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.033794153969713e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2555750770849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,19 +32083,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>209.949944842253</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33271,13 +33271,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>574.6535388222619</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121701</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9138629937516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237879</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
         <v>735.300110790295</v>
@@ -38104,16 +38104,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
